--- a/backend/pages/excel/excel-certificate-003.xlsx
+++ b/backend/pages/excel/excel-certificate-003.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morn\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-certificate\backend\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2563EE7-A078-44DC-AB23-1FF7E2AD6D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A60149-BAC4-47F8-B55F-04D11A296C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15150" xr2:uid="{F4964FBE-CDC7-415D-A224-C0FAB4561966}"/>
+    <workbookView xWindow="7200" yWindow="3645" windowWidth="21600" windowHeight="11295" xr2:uid="{F4964FBE-CDC7-415D-A224-C0FAB4561966}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>โรงเรียนบ่อกรุวิทยา</t>
   </si>
   <si>
-    <t>การประกวดโครงงานวิทยาศาสตร์</t>
-  </si>
-  <si>
     <t>รางวัลชนะเลิศ</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>ระหว่างวันที่ 4 - 5 สิงหาคม พ.ศ.2566</t>
+  </si>
+  <si>
+    <t>การแข่งขันตอบปัญหาทั่วไปทางวิทยาศาสตร์ ภาษาไทย</t>
   </si>
 </sst>
 </file>
@@ -137,11 +137,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,7 +461,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
     <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="71.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
@@ -509,16 +509,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/pages/excel/excel-certificate-003.xlsx
+++ b/backend/pages/excel/excel-certificate-003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-certificate\backend\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A60149-BAC4-47F8-B55F-04D11A296C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3368FACB-1510-4E91-BC75-66DB7D696C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3645" windowWidth="21600" windowHeight="11295" xr2:uid="{F4964FBE-CDC7-415D-A224-C0FAB4561966}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{F4964FBE-CDC7-415D-A224-C0FAB4561966}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>โรงเรียนบ่อกรุวิทยา</t>
   </si>
   <si>
-    <t>รางวัลชนะเลิศ</t>
-  </si>
-  <si>
     <t>นิทรรศการวันวิทยาสาสตร์ Science today is Technology Tomorrow ประจำปี 2566</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>การแข่งขันตอบปัญหาทั่วไปทางวิทยาศาสตร์ ภาษาไทย</t>
+  </si>
+  <si>
+    <t>ได้รับ รางวัลชนะเลิศ</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,16 +509,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/pages/excel/excel-certificate-003.xlsx
+++ b/backend/pages/excel/excel-certificate-003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-certificate\backend\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3368FACB-1510-4E91-BC75-66DB7D696C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E53E38-7558-4D30-BD37-7B8D1828F98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{F4964FBE-CDC7-415D-A224-C0FAB4561966}"/>
+    <workbookView xWindow="2235" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{F4964FBE-CDC7-415D-A224-C0FAB4561966}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,16 +65,16 @@
     <t>โรงเรียนบ่อกรุวิทยา</t>
   </si>
   <si>
-    <t>นิทรรศการวันวิทยาสาสตร์ Science today is Technology Tomorrow ประจำปี 2566</t>
-  </si>
-  <si>
     <t>ระหว่างวันที่ 4 - 5 สิงหาคม พ.ศ.2566</t>
   </si>
   <si>
     <t>การแข่งขันตอบปัญหาทั่วไปทางวิทยาศาสตร์ ภาษาไทย</t>
   </si>
   <si>
-    <t>ได้รับ รางวัลชนะเลิศ</t>
+    <t>นิทรรศการวันวิทยาศาสตร์ "Science Today is Technology Tomorrow"</t>
+  </si>
+  <si>
+    <t>ได้รับรางวัลรองชนะเลิศ อันดับ 1</t>
   </si>
 </sst>
 </file>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AEF7B0-C18D-49D4-8779-B319BBD1C404}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,7 @@
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="71.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -509,16 +509,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/backend/pages/excel/excel-certificate-003.xlsx
+++ b/backend/pages/excel/excel-certificate-003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-certificate\backend\pages\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E53E38-7558-4D30-BD37-7B8D1828F98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC523B2-0404-4453-A547-7D27E31C7617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{F4964FBE-CDC7-415D-A224-C0FAB4561966}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4964FBE-CDC7-415D-A224-C0FAB4561966}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>โรงเรียนบ่อกรุวิทยา</t>
   </si>
   <si>
-    <t>ระหว่างวันที่ 4 - 5 สิงหาคม พ.ศ.2566</t>
-  </si>
-  <si>
     <t>การแข่งขันตอบปัญหาทั่วไปทางวิทยาศาสตร์ ภาษาไทย</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>ได้รับรางวัลรองชนะเลิศ อันดับ 1</t>
+  </si>
+  <si>
+    <t>ระหว่างวันที่ 4 - 5 สิงหาคม พ.ศ. 2566</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,16 +509,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
